--- a/Pixiv.xlsx
+++ b/Pixiv.xlsx
@@ -123,6 +123,1691 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2381250" cy="2381250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2381250" cy="2381250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2381250" cy="2381250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="Image 3" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2381250" cy="2381250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="4" name="Image 4" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2381250" cy="2381250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="5" name="Image 5" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>5</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2381250" cy="2381250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="6" name="Image 6" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2381250" cy="2381250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="7" name="Image 7" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>7</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2381250" cy="2381250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="8" name="Image 8" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>8</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2381250" cy="2381250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="9" name="Image 9" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>9</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2381250" cy="2381250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="10" name="Image 10" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>10</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2381250" cy="2381250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="11" name="Image 11" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>11</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2381250" cy="2381250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="12" name="Image 12" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>12</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2381250" cy="2381250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="13" name="Image 13" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>13</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2381250" cy="2381250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="14" name="Image 14" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>14</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2381250" cy="2381250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="15" name="Image 15" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>15</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2381250" cy="2381250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="16" name="Image 16" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>16</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2381250" cy="2381250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="17" name="Image 17" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>17</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2381250" cy="2381250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="18" name="Image 18" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>18</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2381250" cy="2381250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="19" name="Image 19" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>19</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2381250" cy="2381250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="20" name="Image 20" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>20</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2381250" cy="2381250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="21" name="Image 21" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>21</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2381250" cy="2381250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="22" name="Image 22" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>22</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2381250" cy="2381250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="23" name="Image 23" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>23</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2381250" cy="2381250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="24" name="Image 24" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>24</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2381250" cy="2381250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="25" name="Image 25" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>25</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2381250" cy="2381250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="26" name="Image 26" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>26</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2381250" cy="2381250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="27" name="Image 27" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>27</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2381250" cy="2381250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="28" name="Image 28" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>28</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2381250" cy="2381250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="29" name="Image 29" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>29</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2381250" cy="2381250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="30" name="Image 30" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>30</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2381250" cy="2381250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="31" name="Image 31" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>31</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2381250" cy="2381250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="32" name="Image 32" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>32</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2381250" cy="2381250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="33" name="Image 33" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>33</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2381250" cy="2381250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="34" name="Image 34" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>34</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2381250" cy="2381250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="35" name="Image 35" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>35</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2381250" cy="2381250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="36" name="Image 36" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>36</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2381250" cy="2381250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="37" name="Image 37" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>37</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2381250" cy="2381250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="38" name="Image 38" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId38"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>38</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2381250" cy="2381250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="39" name="Image 39" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId39"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>39</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2381250" cy="2381250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="40" name="Image 40" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId40"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>40</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2381250" cy="2381250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="41" name="Image 41" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId41"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>41</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2381250" cy="2381250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="42" name="Image 42" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId42"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>42</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2381250" cy="2381250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="43" name="Image 43" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId43"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>43</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2381250" cy="2381250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="44" name="Image 44" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId44"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>44</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2381250" cy="2381250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="45" name="Image 45" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId45"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>45</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2381250" cy="2381250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="46" name="Image 46" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId46"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>46</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2381250" cy="2381250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="47" name="Image 47" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId47"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>47</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2381250" cy="2381250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="48" name="Image 48" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId48"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>48</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2381250" cy="2381250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="49" name="Image 49" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId49"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>49</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2381250" cy="2381250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="50" name="Image 50" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId50"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>50</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2381250" cy="2381250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="51" name="Image 51" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId51"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>51</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2381250" cy="2381250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="52" name="Image 52" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId52"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>52</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2381250" cy="2381250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="53" name="Image 53" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId53"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>53</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2381250" cy="2381250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="54" name="Image 54" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId54"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>54</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2381250" cy="2381250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="55" name="Image 55" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId55"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>55</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2381250" cy="2381250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="56" name="Image 56" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId56"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>56</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2381250" cy="2381250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="57" name="Image 57" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId57"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>57</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2381250" cy="2381250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="58" name="Image 58" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId58"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>58</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2381250" cy="2381250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="59" name="Image 59" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId59"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>59</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2381250" cy="2381250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="60" name="Image 60" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId60"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -409,7 +2094,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1161,6 +2846,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Pixiv.xlsx
+++ b/Pixiv.xlsx
@@ -131,7 +131,7 @@
     <from>
       <col>2</col>
       <colOff>0</colOff>
-      <row>0</row>
+      <row>1</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2381250" cy="2381250"/>
@@ -159,7 +159,7 @@
     <from>
       <col>2</col>
       <colOff>0</colOff>
-      <row>1</row>
+      <row>2</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2381250" cy="2381250"/>
@@ -187,7 +187,7 @@
     <from>
       <col>2</col>
       <colOff>0</colOff>
-      <row>2</row>
+      <row>3</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2381250" cy="2381250"/>
@@ -215,7 +215,7 @@
     <from>
       <col>2</col>
       <colOff>0</colOff>
-      <row>3</row>
+      <row>4</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2381250" cy="2381250"/>
@@ -243,7 +243,7 @@
     <from>
       <col>2</col>
       <colOff>0</colOff>
-      <row>4</row>
+      <row>5</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2381250" cy="2381250"/>
@@ -271,7 +271,7 @@
     <from>
       <col>2</col>
       <colOff>0</colOff>
-      <row>5</row>
+      <row>6</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2381250" cy="2381250"/>
@@ -299,7 +299,7 @@
     <from>
       <col>2</col>
       <colOff>0</colOff>
-      <row>6</row>
+      <row>7</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2381250" cy="2381250"/>
@@ -327,7 +327,7 @@
     <from>
       <col>2</col>
       <colOff>0</colOff>
-      <row>7</row>
+      <row>8</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2381250" cy="2381250"/>
@@ -355,7 +355,7 @@
     <from>
       <col>2</col>
       <colOff>0</colOff>
-      <row>8</row>
+      <row>9</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2381250" cy="2381250"/>
@@ -383,7 +383,7 @@
     <from>
       <col>2</col>
       <colOff>0</colOff>
-      <row>9</row>
+      <row>10</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2381250" cy="2381250"/>
@@ -411,7 +411,7 @@
     <from>
       <col>2</col>
       <colOff>0</colOff>
-      <row>10</row>
+      <row>11</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2381250" cy="2381250"/>
@@ -439,7 +439,7 @@
     <from>
       <col>2</col>
       <colOff>0</colOff>
-      <row>11</row>
+      <row>12</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2381250" cy="2381250"/>
@@ -467,7 +467,7 @@
     <from>
       <col>2</col>
       <colOff>0</colOff>
-      <row>12</row>
+      <row>13</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2381250" cy="2381250"/>
@@ -495,7 +495,7 @@
     <from>
       <col>2</col>
       <colOff>0</colOff>
-      <row>13</row>
+      <row>14</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2381250" cy="2381250"/>
@@ -523,7 +523,7 @@
     <from>
       <col>2</col>
       <colOff>0</colOff>
-      <row>14</row>
+      <row>15</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2381250" cy="2381250"/>
@@ -551,7 +551,7 @@
     <from>
       <col>2</col>
       <colOff>0</colOff>
-      <row>15</row>
+      <row>16</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2381250" cy="2381250"/>
@@ -579,7 +579,7 @@
     <from>
       <col>2</col>
       <colOff>0</colOff>
-      <row>16</row>
+      <row>17</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2381250" cy="2381250"/>
@@ -607,7 +607,7 @@
     <from>
       <col>2</col>
       <colOff>0</colOff>
-      <row>17</row>
+      <row>18</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2381250" cy="2381250"/>
@@ -635,7 +635,7 @@
     <from>
       <col>2</col>
       <colOff>0</colOff>
-      <row>18</row>
+      <row>19</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2381250" cy="2381250"/>
@@ -663,7 +663,7 @@
     <from>
       <col>2</col>
       <colOff>0</colOff>
-      <row>19</row>
+      <row>20</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2381250" cy="2381250"/>
@@ -691,7 +691,7 @@
     <from>
       <col>2</col>
       <colOff>0</colOff>
-      <row>20</row>
+      <row>21</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2381250" cy="2381250"/>
@@ -719,7 +719,7 @@
     <from>
       <col>2</col>
       <colOff>0</colOff>
-      <row>21</row>
+      <row>22</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2381250" cy="2381250"/>
@@ -747,7 +747,7 @@
     <from>
       <col>2</col>
       <colOff>0</colOff>
-      <row>22</row>
+      <row>23</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2381250" cy="2381250"/>
@@ -775,7 +775,7 @@
     <from>
       <col>2</col>
       <colOff>0</colOff>
-      <row>23</row>
+      <row>24</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2381250" cy="2381250"/>
@@ -803,7 +803,7 @@
     <from>
       <col>2</col>
       <colOff>0</colOff>
-      <row>24</row>
+      <row>25</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2381250" cy="2381250"/>
@@ -831,7 +831,7 @@
     <from>
       <col>2</col>
       <colOff>0</colOff>
-      <row>25</row>
+      <row>26</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2381250" cy="2381250"/>
@@ -859,7 +859,7 @@
     <from>
       <col>2</col>
       <colOff>0</colOff>
-      <row>26</row>
+      <row>27</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2381250" cy="2381250"/>
@@ -887,7 +887,7 @@
     <from>
       <col>2</col>
       <colOff>0</colOff>
-      <row>27</row>
+      <row>28</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2381250" cy="2381250"/>
@@ -915,7 +915,7 @@
     <from>
       <col>2</col>
       <colOff>0</colOff>
-      <row>28</row>
+      <row>29</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2381250" cy="2381250"/>
@@ -943,7 +943,7 @@
     <from>
       <col>2</col>
       <colOff>0</colOff>
-      <row>29</row>
+      <row>30</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2381250" cy="2381250"/>
@@ -971,7 +971,7 @@
     <from>
       <col>2</col>
       <colOff>0</colOff>
-      <row>30</row>
+      <row>31</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2381250" cy="2381250"/>
@@ -999,7 +999,7 @@
     <from>
       <col>2</col>
       <colOff>0</colOff>
-      <row>31</row>
+      <row>32</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2381250" cy="2381250"/>
@@ -1027,7 +1027,7 @@
     <from>
       <col>2</col>
       <colOff>0</colOff>
-      <row>32</row>
+      <row>33</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2381250" cy="2381250"/>
@@ -1055,7 +1055,7 @@
     <from>
       <col>2</col>
       <colOff>0</colOff>
-      <row>33</row>
+      <row>34</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2381250" cy="2381250"/>
@@ -1083,7 +1083,7 @@
     <from>
       <col>2</col>
       <colOff>0</colOff>
-      <row>34</row>
+      <row>35</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2381250" cy="2381250"/>
@@ -1111,7 +1111,7 @@
     <from>
       <col>2</col>
       <colOff>0</colOff>
-      <row>35</row>
+      <row>36</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2381250" cy="2381250"/>
@@ -1139,7 +1139,7 @@
     <from>
       <col>2</col>
       <colOff>0</colOff>
-      <row>36</row>
+      <row>37</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2381250" cy="2381250"/>
@@ -1167,7 +1167,7 @@
     <from>
       <col>2</col>
       <colOff>0</colOff>
-      <row>37</row>
+      <row>38</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2381250" cy="2381250"/>
@@ -1195,7 +1195,7 @@
     <from>
       <col>2</col>
       <colOff>0</colOff>
-      <row>38</row>
+      <row>39</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2381250" cy="2381250"/>
@@ -1223,7 +1223,7 @@
     <from>
       <col>2</col>
       <colOff>0</colOff>
-      <row>39</row>
+      <row>40</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2381250" cy="2381250"/>
@@ -1251,7 +1251,7 @@
     <from>
       <col>2</col>
       <colOff>0</colOff>
-      <row>40</row>
+      <row>41</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2381250" cy="2381250"/>
@@ -1279,7 +1279,7 @@
     <from>
       <col>2</col>
       <colOff>0</colOff>
-      <row>41</row>
+      <row>42</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2381250" cy="2381250"/>
@@ -1307,7 +1307,7 @@
     <from>
       <col>2</col>
       <colOff>0</colOff>
-      <row>42</row>
+      <row>43</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2381250" cy="2381250"/>
@@ -1335,7 +1335,7 @@
     <from>
       <col>2</col>
       <colOff>0</colOff>
-      <row>43</row>
+      <row>44</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2381250" cy="2381250"/>
@@ -1363,7 +1363,7 @@
     <from>
       <col>2</col>
       <colOff>0</colOff>
-      <row>44</row>
+      <row>45</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2381250" cy="2381250"/>
@@ -1391,7 +1391,7 @@
     <from>
       <col>2</col>
       <colOff>0</colOff>
-      <row>45</row>
+      <row>46</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2381250" cy="2381250"/>
@@ -1419,7 +1419,7 @@
     <from>
       <col>2</col>
       <colOff>0</colOff>
-      <row>46</row>
+      <row>47</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2381250" cy="2381250"/>
@@ -1447,7 +1447,7 @@
     <from>
       <col>2</col>
       <colOff>0</colOff>
-      <row>47</row>
+      <row>48</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2381250" cy="2381250"/>
@@ -1475,7 +1475,7 @@
     <from>
       <col>2</col>
       <colOff>0</colOff>
-      <row>48</row>
+      <row>49</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2381250" cy="2381250"/>
@@ -1503,7 +1503,7 @@
     <from>
       <col>2</col>
       <colOff>0</colOff>
-      <row>49</row>
+      <row>50</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2381250" cy="2381250"/>
@@ -1531,7 +1531,7 @@
     <from>
       <col>2</col>
       <colOff>0</colOff>
-      <row>50</row>
+      <row>51</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2381250" cy="2381250"/>
@@ -1559,7 +1559,7 @@
     <from>
       <col>2</col>
       <colOff>0</colOff>
-      <row>51</row>
+      <row>52</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2381250" cy="2381250"/>
@@ -1587,7 +1587,7 @@
     <from>
       <col>2</col>
       <colOff>0</colOff>
-      <row>52</row>
+      <row>53</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2381250" cy="2381250"/>
@@ -1615,7 +1615,7 @@
     <from>
       <col>2</col>
       <colOff>0</colOff>
-      <row>53</row>
+      <row>54</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2381250" cy="2381250"/>
@@ -1643,7 +1643,7 @@
     <from>
       <col>2</col>
       <colOff>0</colOff>
-      <row>54</row>
+      <row>55</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2381250" cy="2381250"/>
@@ -1671,7 +1671,7 @@
     <from>
       <col>2</col>
       <colOff>0</colOff>
-      <row>55</row>
+      <row>56</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2381250" cy="2381250"/>
@@ -1699,7 +1699,7 @@
     <from>
       <col>2</col>
       <colOff>0</colOff>
-      <row>56</row>
+      <row>57</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2381250" cy="2381250"/>
@@ -1727,7 +1727,7 @@
     <from>
       <col>2</col>
       <colOff>0</colOff>
-      <row>57</row>
+      <row>58</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2381250" cy="2381250"/>
@@ -1755,7 +1755,7 @@
     <from>
       <col>2</col>
       <colOff>0</colOff>
-      <row>58</row>
+      <row>59</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2381250" cy="2381250"/>
@@ -1783,7 +1783,7 @@
     <from>
       <col>2</col>
       <colOff>0</colOff>
-      <row>59</row>
+      <row>60</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="2381250" cy="2381250"/>
@@ -2107,7 +2107,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="20" customHeight="1">
       <c r="A1" t="inlineStr">
         <is>
           <t>作品名稱</t>
@@ -2124,7 +2124,7 @@
         </is>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="250" customHeight="1">
       <c r="A2" t="inlineStr">
         <is>
           <t>毘沙より</t>
@@ -2136,7 +2136,7 @@
         </is>
       </c>
     </row>
-    <row r="3">
+    <row r="3" ht="250" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
           <t>蠃蚌夜トログ</t>
@@ -2148,7 +2148,7 @@
         </is>
       </c>
     </row>
-    <row r="4">
+    <row r="4" ht="250" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
           <t>名</t>
@@ -2160,7 +2160,7 @@
         </is>
       </c>
     </row>
-    <row r="5">
+    <row r="5" ht="250" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
           <t>Yato!</t>
@@ -2172,7 +2172,7 @@
         </is>
       </c>
     </row>
-    <row r="6">
+    <row r="6" ht="250" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
           <t>Metamorphosis</t>
@@ -2184,7 +2184,7 @@
         </is>
       </c>
     </row>
-    <row r="7">
+    <row r="7" ht="250" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
           <t>デリバリーゴッド</t>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
     </row>
-    <row r="8">
+    <row r="8" ht="250" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
           <t>無題</t>
@@ -2208,7 +2208,7 @@
         </is>
       </c>
     </row>
-    <row r="9">
+    <row r="9" ht="250" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
           <t>ノラガミ ログ</t>
@@ -2220,7 +2220,7 @@
         </is>
       </c>
     </row>
-    <row r="10">
+    <row r="10" ht="250" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
           <t>雨</t>
@@ -2232,7 +2232,7 @@
         </is>
       </c>
     </row>
-    <row r="11">
+    <row r="11" ht="250" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
           <t>母の日</t>
@@ -2244,7 +2244,7 @@
         </is>
       </c>
     </row>
-    <row r="12">
+    <row r="12" ht="250" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
           <t>ノラガミ</t>
@@ -2256,7 +2256,7 @@
         </is>
       </c>
     </row>
-    <row r="13">
+    <row r="13" ht="250" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
           <t>無題</t>
@@ -2268,7 +2268,7 @@
         </is>
       </c>
     </row>
-    <row r="14">
+    <row r="14" ht="250" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
           <t>『午夜の待ち合わせ』</t>
@@ -2280,7 +2280,7 @@
         </is>
       </c>
     </row>
-    <row r="15">
+    <row r="15" ht="250" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
           <t>夏</t>
@@ -2292,7 +2292,7 @@
         </is>
       </c>
     </row>
-    <row r="16">
+    <row r="16" ht="250" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
           <t>葬物</t>
@@ -2304,7 +2304,7 @@
         </is>
       </c>
     </row>
-    <row r="17">
+    <row r="17" ht="250" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
           <t>黄云まとめ</t>
@@ -2316,7 +2316,7 @@
         </is>
       </c>
     </row>
-    <row r="18">
+    <row r="18" ht="250" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
           <t>ノラガミ</t>
@@ -2328,7 +2328,7 @@
         </is>
       </c>
     </row>
-    <row r="19">
+    <row r="19" ht="250" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
           <t>供えろ</t>
@@ -2340,7 +2340,7 @@
         </is>
       </c>
     </row>
-    <row r="20">
+    <row r="20" ht="250" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
           <t>毘沙福</t>
@@ -2352,7 +2352,7 @@
         </is>
       </c>
     </row>
-    <row r="21">
+    <row r="21" ht="250" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
           <t>Hiyori Iki (Noragami) - ACNH</t>
@@ -2364,7 +2364,7 @@
         </is>
       </c>
     </row>
-    <row r="22">
+    <row r="22" ht="250" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
           <t>夏仕様</t>
@@ -2376,7 +2376,7 @@
         </is>
       </c>
     </row>
-    <row r="23">
+    <row r="23" ht="250" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
           <t>Re雪</t>
@@ -2388,7 +2388,7 @@
         </is>
       </c>
     </row>
-    <row r="24">
+    <row r="24" ht="250" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
           <t>スイッチ！！</t>
@@ -2400,7 +2400,7 @@
         </is>
       </c>
     </row>
-    <row r="25">
+    <row r="25" ht="250" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
           <t>夜ト雪</t>
@@ -2412,7 +2412,7 @@
         </is>
       </c>
     </row>
-    <row r="26">
+    <row r="26" ht="250" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
           <t>夏仕様</t>
@@ -2424,7 +2424,7 @@
         </is>
       </c>
     </row>
-    <row r="27">
+    <row r="27" ht="250" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
           <t>夜と</t>
@@ -2436,7 +2436,7 @@
         </is>
       </c>
     </row>
-    <row r="28">
+    <row r="28" ht="250" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
           <t>毘沙門天</t>
@@ -2448,7 +2448,7 @@
         </is>
       </c>
     </row>
-    <row r="29">
+    <row r="29" ht="250" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
           <t>ノラガミまとめ</t>
@@ -2460,7 +2460,7 @@
         </is>
       </c>
     </row>
-    <row r="30">
+    <row r="30" ht="250" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
           <t>神&amp;神器</t>
@@ -2472,7 +2472,7 @@
         </is>
       </c>
     </row>
-    <row r="31">
+    <row r="31" ht="250" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
           <t>ひより</t>
@@ -2484,7 +2484,7 @@
         </is>
       </c>
     </row>
-    <row r="32">
+    <row r="32" ht="250" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
           <t>無題</t>
@@ -2496,7 +2496,7 @@
         </is>
       </c>
     </row>
-    <row r="33">
+    <row r="33" ht="250" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
           <t>——いつも一緒でした</t>
@@ -2508,7 +2508,7 @@
         </is>
       </c>
     </row>
-    <row r="34">
+    <row r="34" ht="250" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
           <t>壱岐ひより</t>
@@ -2520,7 +2520,7 @@
         </is>
       </c>
     </row>
-    <row r="35">
+    <row r="35" ht="250" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
           <t>やと</t>
@@ -2532,7 +2532,7 @@
         </is>
       </c>
     </row>
-    <row r="36">
+    <row r="36" ht="250" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
           <t>夜トと雪音</t>
@@ -2544,7 +2544,7 @@
         </is>
       </c>
     </row>
-    <row r="37">
+    <row r="37" ht="250" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
           <t>名も無き子</t>
@@ -2556,7 +2556,7 @@
         </is>
       </c>
     </row>
-    <row r="38">
+    <row r="38" ht="250" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
           <t>ノラガミ</t>
@@ -2568,7 +2568,7 @@
         </is>
       </c>
     </row>
-    <row r="39">
+    <row r="39" ht="250" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
           <t>wip Yato (noragami)</t>
@@ -2580,7 +2580,7 @@
         </is>
       </c>
     </row>
-    <row r="40">
+    <row r="40" ht="250" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
           <t>おだんごより</t>
@@ -2592,7 +2592,7 @@
         </is>
       </c>
     </row>
-    <row r="41">
+    <row r="41" ht="250" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
           <t>Nora Noragami - Fanart</t>
@@ -2604,7 +2604,7 @@
         </is>
       </c>
     </row>
-    <row r="42">
+    <row r="42" ht="250" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
           <t>ノラガミ・夜ト</t>
@@ -2616,7 +2616,7 @@
         </is>
       </c>
     </row>
-    <row r="43">
+    <row r="43" ht="250" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
           <t>戦い中</t>
@@ -2628,7 +2628,7 @@
         </is>
       </c>
     </row>
-    <row r="44">
+    <row r="44" ht="250" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
           <t>傷つく</t>
@@ -2640,7 +2640,7 @@
         </is>
       </c>
     </row>
-    <row r="45">
+    <row r="45" ht="250" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
           <t>【Six Character】</t>
@@ -2652,7 +2652,7 @@
         </is>
       </c>
     </row>
-    <row r="46">
+    <row r="46" ht="250" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
           <t>らくがき</t>
@@ -2664,7 +2664,7 @@
         </is>
       </c>
     </row>
-    <row r="47">
+    <row r="47" ht="250" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
           <t>【水彩】野良神 - 雪音</t>
@@ -2676,7 +2676,7 @@
         </is>
       </c>
     </row>
-    <row r="48">
+    <row r="48" ht="250" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
           <t>無題</t>
@@ -2688,7 +2688,7 @@
         </is>
       </c>
     </row>
-    <row r="49">
+    <row r="49" ht="250" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
           <t>無題</t>
@@ -2700,7 +2700,7 @@
         </is>
       </c>
     </row>
-    <row r="50">
+    <row r="50" ht="250" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
           <t>雪音  Yukine  ノラガミ</t>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
     </row>
-    <row r="51">
+    <row r="51" ht="250" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
           <t>夜卜  Yato  ノラガミ</t>
@@ -2724,7 +2724,7 @@
         </is>
       </c>
     </row>
-    <row r="52">
+    <row r="52" ht="250" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
           <t>ノラガミ落書き</t>
@@ -2736,7 +2736,7 @@
         </is>
       </c>
     </row>
-    <row r="53">
+    <row r="53" ht="250" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
           <t>2021</t>
@@ -2748,7 +2748,7 @@
         </is>
       </c>
     </row>
-    <row r="54">
+    <row r="54" ht="250" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
           <t>雪音(黑) VS 夜ト</t>
@@ -2760,7 +2760,7 @@
         </is>
       </c>
     </row>
-    <row r="55">
+    <row r="55" ht="250" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
           <t>2020 MISC (LOG)</t>
@@ -2772,7 +2772,7 @@
         </is>
       </c>
     </row>
-    <row r="56">
+    <row r="56" ht="250" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
           <t>雪音から・・・・</t>
@@ -2784,7 +2784,7 @@
         </is>
       </c>
     </row>
-    <row r="57">
+    <row r="57" ht="250" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
           <t>🌸</t>
@@ -2796,7 +2796,7 @@
         </is>
       </c>
     </row>
-    <row r="58">
+    <row r="58" ht="250" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
           <t>無題</t>
@@ -2808,7 +2808,7 @@
         </is>
       </c>
     </row>
-    <row r="59">
+    <row r="59" ht="250" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
           <t>日夜</t>
@@ -2820,7 +2820,7 @@
         </is>
       </c>
     </row>
-    <row r="60">
+    <row r="60" ht="250" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
           <t>初うごイラ</t>
@@ -2832,7 +2832,7 @@
         </is>
       </c>
     </row>
-    <row r="61">
+    <row r="61" ht="250" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
           <t>無題</t>
